--- a/13/문자열찾기 배포 찐막.xlsx
+++ b/13/문자열찾기 배포 찐막.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minseo/data_structure/13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\자료구조\code\13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4E1A67-2DC5-434D-AD07-5FB7CADB1F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF379F5-B5F4-4DC9-808F-CB4E8C086C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문자열 세기" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="230">
   <si>
     <r>
       <t>§</t>
@@ -1199,10 +1199,6 @@
   </si>
   <si>
     <t>pi는 이름으로써 의미는 없음</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅌ₩</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2310,6 +2306,10 @@
 end_time = time.perf_counter()
 # 실행 시간 출력
 print(f"실행 싯간: {(end_time - start_time) * 1000:.7f} milliseconds")</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2955,6 +2955,21 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2964,7 +2979,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2994,8 +3009,17 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3003,44 +3027,20 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8777,7 +8777,7 @@
       <selection activeCell="A21" sqref="A21:A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="49" width="3.6640625" style="3" customWidth="1"/>
     <col min="50" max="16384" width="9" style="3"/>
@@ -8931,29 +8931,29 @@
       <c r="U3" s="41"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="3" t="s">
@@ -9005,29 +9005,29 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="3" t="s">
@@ -9085,37 +9085,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="13" width="5.6640625" style="4" customWidth="1"/>
     <col min="14" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="4" t="s">
@@ -9176,26 +9176,26 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="55" t="s">
@@ -9264,32 +9264,32 @@
       <c r="L14" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="85">
         <v>0</v>
       </c>
-      <c r="N14" s="77"/>
+      <c r="N14" s="85"/>
     </row>
     <row r="15" spans="1:18">
       <c r="L15" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="85">
         <v>8</v>
       </c>
-      <c r="N15" s="77"/>
+      <c r="N15" s="85"/>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="P17" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
+      <c r="P17" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="47">
@@ -9319,12 +9319,12 @@
       <c r="J18" s="47">
         <v>8</v>
       </c>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
     </row>
     <row r="19" spans="2:21" ht="36">
       <c r="B19" s="54" t="s">
@@ -9354,61 +9354,61 @@
       <c r="J19" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
     </row>
     <row r="20" spans="2:21">
       <c r="L20" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="85">
         <v>1</v>
       </c>
-      <c r="N20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
+      <c r="N20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
     </row>
     <row r="21" spans="2:21">
       <c r="L21" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="85">
         <v>7</v>
       </c>
-      <c r="N21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
+      <c r="N21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
     </row>
     <row r="23" spans="2:21">
       <c r="B23" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
     </row>
     <row r="24" spans="2:21">
       <c r="B24" s="47">
@@ -9438,12 +9438,12 @@
       <c r="J24" s="47">
         <v>8</v>
       </c>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
     </row>
     <row r="25" spans="2:21" ht="36">
       <c r="B25" s="54" t="s">
@@ -9473,61 +9473,61 @@
       <c r="J25" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
     </row>
     <row r="26" spans="2:21">
       <c r="L26" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="85">
         <v>2</v>
       </c>
-      <c r="N26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
+      <c r="N26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
     </row>
     <row r="27" spans="2:21">
       <c r="L27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="85">
         <v>6</v>
       </c>
-      <c r="N27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
+      <c r="N27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="47">
@@ -9557,12 +9557,12 @@
       <c r="J30" s="47">
         <v>8</v>
       </c>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
     </row>
     <row r="31" spans="2:21" ht="36">
       <c r="B31" s="54" t="s">
@@ -9592,42 +9592,42 @@
       <c r="J31" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
     </row>
     <row r="32" spans="2:21">
       <c r="L32" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M32" s="77">
+      <c r="M32" s="85">
         <v>3</v>
       </c>
-      <c r="N32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
+      <c r="N32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
     </row>
     <row r="33" spans="2:21">
       <c r="L33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M33" s="77">
+      <c r="M33" s="85">
         <v>5</v>
       </c>
-      <c r="N33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
+      <c r="N33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="55" t="s">
@@ -9696,28 +9696,22 @@
       <c r="L38" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M38" s="77">
+      <c r="M38" s="85">
         <v>4</v>
       </c>
-      <c r="N38" s="77"/>
+      <c r="N38" s="85"/>
     </row>
     <row r="39" spans="2:21">
       <c r="L39" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M39" s="77">
+      <c r="M39" s="85">
         <v>4</v>
       </c>
-      <c r="N39" s="77"/>
+      <c r="N39" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="P17:U33"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="M21:N21"/>
@@ -9725,6 +9719,12 @@
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="P17:U33"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9737,37 +9737,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="18" width="5.6640625" style="4" customWidth="1"/>
     <col min="19" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
     </row>
     <row r="3" spans="1:18">
       <c r="J3" s="50"/>
@@ -10037,18 +10037,18 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="50"/>
@@ -10226,7 +10226,7 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="4" customWidth="1"/>
     <col min="2" max="23" width="5.6640625" style="4" customWidth="1"/>
@@ -10234,32 +10234,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-    </row>
-    <row r="3" spans="1:22" ht="21" thickBot="1">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+    </row>
+    <row r="3" spans="1:22" ht="21.5" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="23" thickTop="1" thickBot="1">
+    <row r="5" spans="1:22" ht="22" thickTop="1" thickBot="1">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="21" thickTop="1"/>
+    <row r="6" spans="1:22" ht="21.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:V1"/>
@@ -10411,22 +10411,22 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -10507,7 +10507,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="3"/>
     <col min="3" max="3" width="31.1640625" style="3" customWidth="1"/>
@@ -10515,18 +10515,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" thickBot="1">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.5" thickBot="1">
       <c r="C2" s="3" t="s">
         <v>186</v>
       </c>
@@ -10798,32 +10798,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="4" customWidth="1"/>
     <col min="2" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="53"/>
@@ -10888,8 +10888,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="21" thickBot="1"/>
-    <row r="12" spans="1:13" ht="22" thickBot="1">
+    <row r="11" spans="1:13" ht="21.5" thickBot="1"/>
+    <row r="12" spans="1:13" ht="21.5" thickBot="1">
       <c r="A12" s="22" t="s">
         <v>49</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="23" thickTop="1" thickBot="1">
+    <row r="13" spans="1:13" ht="22" thickTop="1" thickBot="1">
       <c r="A13" s="23" t="s">
         <v>50</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="22" thickBot="1">
+    <row r="14" spans="1:13" ht="21.5" thickBot="1">
       <c r="A14" s="26" t="s">
         <v>51</v>
       </c>
@@ -10975,8 +10975,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21" thickBot="1"/>
-    <row r="21" spans="1:9" ht="22" thickBot="1">
+    <row r="20" spans="1:9" ht="21.5" thickBot="1"/>
+    <row r="21" spans="1:9" ht="21.5" thickBot="1">
       <c r="A21" s="22" t="s">
         <v>49</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="23" thickTop="1" thickBot="1">
+    <row r="22" spans="1:9" ht="22" thickTop="1" thickBot="1">
       <c r="A22" s="23" t="s">
         <v>50</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22" thickBot="1">
+    <row r="23" spans="1:9" ht="21.5" thickBot="1">
       <c r="A23" s="26" t="s">
         <v>51</v>
       </c>
@@ -11064,8 +11064,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="21" thickBot="1"/>
-    <row r="29" spans="1:9" ht="22" thickBot="1">
+    <row r="28" spans="1:9" ht="21.5" thickBot="1"/>
+    <row r="29" spans="1:9" ht="21.5" thickBot="1">
       <c r="A29" s="22" t="s">
         <v>49</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="23" thickTop="1" thickBot="1">
+    <row r="30" spans="1:9" ht="22" thickTop="1" thickBot="1">
       <c r="A30" s="23" t="s">
         <v>50</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="22" thickBot="1">
+    <row r="31" spans="1:9" ht="21.5" thickBot="1">
       <c r="A31" s="26" t="s">
         <v>51</v>
       </c>
@@ -11168,32 +11168,32 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="4" customWidth="1"/>
     <col min="2" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" thickBot="1"/>
-    <row r="3" spans="1:11" ht="22" thickBot="1">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+    </row>
+    <row r="2" spans="1:11" ht="21.5" thickBot="1"/>
+    <row r="3" spans="1:11" ht="21.5" thickBot="1">
       <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="23" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="22" thickTop="1" thickBot="1">
       <c r="A4" s="23" t="s">
         <v>50</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="22" thickBot="1">
+    <row r="5" spans="1:11" ht="21.5" thickBot="1">
       <c r="A5" s="26" t="s">
         <v>51</v>
       </c>
@@ -11314,10 +11314,10 @@
       <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -11327,8 +11327,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="21" thickBot="1"/>
-    <row r="10" spans="1:11" ht="22" thickBot="1">
+    <row r="9" spans="1:11" ht="21.5" thickBot="1"/>
+    <row r="10" spans="1:11" ht="21.5" thickBot="1">
       <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
@@ -11363,12 +11363,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="23" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="22" thickTop="1" thickBot="1">
       <c r="A11" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>8</v>
@@ -11398,7 +11398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="22" thickBot="1">
+    <row r="12" spans="1:11" ht="21.5" thickBot="1">
       <c r="A12" s="26" t="s">
         <v>51</v>
       </c>
@@ -11433,8 +11433,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="21" thickBot="1"/>
-    <row r="17" spans="1:10" ht="22" thickBot="1">
+    <row r="16" spans="1:11" ht="21.5" thickBot="1"/>
+    <row r="17" spans="1:10" ht="21.5" thickBot="1">
       <c r="A17" s="22" t="s">
         <v>52</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="23" thickTop="1" thickBot="1">
+    <row r="18" spans="1:10" ht="22" thickTop="1" thickBot="1">
       <c r="A18" s="24" t="s">
         <v>50</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="22" thickBot="1">
+    <row r="19" spans="1:10" ht="21.5" thickBot="1">
       <c r="A19" s="25" t="s">
         <v>59</v>
       </c>
@@ -11546,11 +11546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA71" sqref="AA71"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="6.5" style="4" customWidth="1"/>
     <col min="2" max="54" width="5.6640625" style="4" customWidth="1"/>
@@ -11558,33 +11558,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
     </row>
     <row r="3" spans="1:27">
       <c r="B3" s="29" t="s">
@@ -11602,13 +11602,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21" thickBot="1"/>
-    <row r="6" spans="1:27" ht="21" thickBot="1">
-      <c r="B6" s="63" t="s">
+    <row r="5" spans="1:27" ht="21.5" thickBot="1"/>
+    <row r="6" spans="1:27" ht="21.5" thickBot="1">
+      <c r="B6" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="22">
         <v>0</v>
       </c>
@@ -11635,11 +11635,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="30.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="23" t="s">
         <v>12</v>
       </c>
@@ -11662,12 +11662,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="21" thickBot="1">
-      <c r="B8" s="69" t="s">
+    <row r="8" spans="1:27" ht="21.5" thickBot="1">
+      <c r="B8" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="25">
         <v>-1</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="22" thickBot="1">
+    <row r="11" spans="1:27" ht="21.5" thickBot="1">
       <c r="B11" s="30" t="s">
         <v>4</v>
       </c>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="AA11"/>
     </row>
-    <row r="12" spans="1:27" ht="23" thickTop="1" thickBot="1">
+    <row r="12" spans="1:27" ht="22" thickTop="1" thickBot="1">
       <c r="B12" s="23" t="s">
         <v>12</v>
       </c>
@@ -11867,47 +11867,47 @@
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
-      <c r="AA12" s="80" t="s">
-        <v>189</v>
+      <c r="AA12" s="59" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="AA13"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="32">
         <v>3</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="AA14" s="81" t="s">
-        <v>190</v>
+      <c r="AA14" s="60" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="32">
         <v>0</v>
       </c>
       <c r="AA15"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="62"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="77"/>
       <c r="AA16"/>
     </row>
     <row r="17" spans="2:27">
@@ -11918,13 +11918,13 @@
       <c r="D17" s="32">
         <v>3</v>
       </c>
-      <c r="AA17" s="80" t="s">
+      <c r="AA17" s="59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27">
+      <c r="AA18" s="60" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27">
-      <c r="AA18" s="81" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:27">
@@ -11997,11 +11997,11 @@
       <c r="X19" s="31">
         <v>22</v>
       </c>
-      <c r="AA19" s="82" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" ht="22" thickBot="1">
+      <c r="AA19" s="61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="21.5" thickBot="1">
       <c r="B20" s="30" t="s">
         <v>4</v>
       </c>
@@ -12067,11 +12067,11 @@
       <c r="X20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA20" s="82" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" ht="23" thickTop="1" thickBot="1">
+      <c r="AA20" s="61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="22" thickTop="1" thickBot="1">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -12109,56 +12109,56 @@
       <c r="V21" s="30"/>
       <c r="W21" s="30"/>
       <c r="X21" s="30"/>
-      <c r="AA21" s="81" t="s">
+      <c r="AA21" s="60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="AA22" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
-      <c r="AA22" s="81" t="s">
-        <v>196</v>
-      </c>
-    </row>
     <row r="23" spans="2:27">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="32">
         <v>3</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="AA23" s="82" t="s">
-        <v>197</v>
+      <c r="AA23" s="61" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:27">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="32">
         <v>-1</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AA24" s="82" t="s">
+      <c r="AA24" s="61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27">
+      <c r="B25" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="77">
+        <v>1</v>
+      </c>
+      <c r="E25" s="77"/>
+      <c r="AA25" s="61" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27">
-      <c r="B25" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="62">
-        <v>1</v>
-      </c>
-      <c r="E25" s="62"/>
-      <c r="AA25" s="82" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="26" spans="2:27">
@@ -12169,13 +12169,13 @@
       <c r="D26" s="32">
         <v>4</v>
       </c>
-      <c r="AA26" s="83" t="s">
+      <c r="AA26" s="62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
+      <c r="AA27" s="61" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27">
-      <c r="AA27" s="82" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="28" spans="2:27">
@@ -12248,11 +12248,11 @@
       <c r="X28" s="31">
         <v>22</v>
       </c>
-      <c r="AA28" s="82" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" ht="22" thickBot="1">
+      <c r="AA28" s="61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="21.5" thickBot="1">
       <c r="B29" s="30" t="s">
         <v>4</v>
       </c>
@@ -12318,11 +12318,11 @@
       <c r="X29" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA29" s="82" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" ht="23" thickTop="1" thickBot="1">
+      <c r="AA29" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="22" thickTop="1" thickBot="1">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -12360,49 +12360,49 @@
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
       <c r="X30" s="30"/>
-      <c r="AA30" s="84" t="s">
+      <c r="AA30" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27">
+      <c r="AA31" s="61" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="2:27">
-      <c r="AA31" s="82" t="s">
-        <v>204</v>
-      </c>
-    </row>
     <row r="32" spans="2:27">
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="72"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="32">
         <v>6</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="AA32" s="82" t="s">
-        <v>198</v>
+      <c r="AA32" s="61" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="2:27">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="32">
         <v>2</v>
       </c>
       <c r="AA33"/>
     </row>
     <row r="34" spans="2:27">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="62">
+      <c r="C34" s="67"/>
+      <c r="D34" s="77">
         <v>4</v>
       </c>
-      <c r="E34" s="62"/>
+      <c r="E34" s="77"/>
       <c r="AA34"/>
     </row>
     <row r="35" spans="2:27">
@@ -12413,13 +12413,13 @@
       <c r="D35" s="32">
         <v>8</v>
       </c>
-      <c r="AA35" s="81" t="s">
+      <c r="AA35" s="60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27">
+      <c r="AA36" s="60" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27">
-      <c r="AA36" s="81" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="37" spans="2:27">
@@ -12492,11 +12492,11 @@
       <c r="X37" s="31">
         <v>22</v>
       </c>
-      <c r="AA37" s="81" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="2:27" ht="22" thickBot="1">
+      <c r="AA37" s="60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" ht="21.5" thickBot="1">
       <c r="B38" s="30" t="s">
         <v>4</v>
       </c>
@@ -12562,11 +12562,11 @@
       <c r="X38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA38" s="81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" ht="23" thickTop="1" thickBot="1">
+      <c r="AA38" s="60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" ht="22" thickTop="1" thickBot="1">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
@@ -12604,51 +12604,51 @@
       <c r="V39" s="30"/>
       <c r="W39" s="30"/>
       <c r="X39" s="30"/>
-      <c r="AA39" s="81" t="s">
+      <c r="AA39" s="60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27">
+      <c r="AA40" s="60" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="2:27">
-      <c r="AA40" s="81" t="s">
-        <v>210</v>
-      </c>
-    </row>
     <row r="41" spans="2:27">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="32">
         <v>2</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="AA41" s="80" t="s">
-        <v>211</v>
+      <c r="AA41" s="59" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="2:27">
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="72"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="32">
         <v>0</v>
       </c>
-      <c r="AA42" s="83" t="s">
-        <v>212</v>
+      <c r="AA42" s="62" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="2:27">
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="62">
+      <c r="C43" s="67"/>
+      <c r="D43" s="77">
         <v>2</v>
       </c>
-      <c r="E43" s="62"/>
+      <c r="E43" s="77"/>
       <c r="AA43"/>
     </row>
     <row r="44" spans="2:27">
@@ -12659,13 +12659,13 @@
       <c r="D44" s="32">
         <v>10</v>
       </c>
-      <c r="AA44" s="82" t="s">
+      <c r="AA44" s="61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27">
+      <c r="AA45" s="60" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27">
-      <c r="AA45" s="81" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="46" spans="2:27">
@@ -12738,11 +12738,11 @@
       <c r="X46" s="31">
         <v>22</v>
       </c>
-      <c r="AA46" s="81" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" ht="22" thickBot="1">
+      <c r="AA46" s="60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" ht="21.5" thickBot="1">
       <c r="B47" s="30" t="s">
         <v>4</v>
       </c>
@@ -12808,11 +12808,11 @@
       <c r="X47" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA47" s="82" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" ht="23" thickTop="1" thickBot="1">
+      <c r="AA47" s="61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" ht="22" thickTop="1" thickBot="1">
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -12850,51 +12850,51 @@
       <c r="V48" s="30"/>
       <c r="W48" s="30"/>
       <c r="X48" s="30"/>
-      <c r="AA48" s="82" t="s">
+      <c r="AA48" s="61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27">
+      <c r="AA49" s="61" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="2:27">
-      <c r="AA49" s="82" t="s">
-        <v>218</v>
-      </c>
-    </row>
     <row r="50" spans="2:27">
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="72"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="32">
         <v>0</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="AA50" s="81" t="s">
-        <v>219</v>
+      <c r="AA50" s="60" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:27">
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="72"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="32">
         <v>-1</v>
       </c>
       <c r="AA51"/>
     </row>
     <row r="52" spans="2:27">
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="62">
+      <c r="C52" s="67"/>
+      <c r="D52" s="77">
         <v>1</v>
       </c>
-      <c r="E52" s="62"/>
-      <c r="AA52" s="80" t="s">
-        <v>220</v>
+      <c r="E52" s="77"/>
+      <c r="AA52" s="59" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="2:27">
@@ -12905,13 +12905,13 @@
       <c r="D53" s="32">
         <v>11</v>
       </c>
-      <c r="AA53" s="81" t="s">
+      <c r="AA53" s="60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27">
+      <c r="AA54" s="60" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="2:27">
-      <c r="AA54" s="81" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="55" spans="2:27">
@@ -12984,11 +12984,11 @@
       <c r="X55" s="31">
         <v>22</v>
       </c>
-      <c r="AA55" s="80" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="2:27" ht="22" thickBot="1">
+      <c r="AA55" s="59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" ht="21.5" thickBot="1">
       <c r="B56" s="30" t="s">
         <v>4</v>
       </c>
@@ -13054,11 +13054,11 @@
       <c r="X56" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA56" s="80" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="2:27" ht="23" thickTop="1" thickBot="1">
+      <c r="AA56" s="59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" ht="22" thickTop="1" thickBot="1">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
@@ -13099,43 +13099,43 @@
       <c r="AA57"/>
     </row>
     <row r="58" spans="2:27">
-      <c r="AA58" s="80" t="s">
-        <v>225</v>
+      <c r="AA58" s="59" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="2:27">
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="72"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="32">
         <v>6</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-      <c r="AA59" s="81" t="s">
-        <v>226</v>
+      <c r="AA59" s="60" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="2:27">
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="72"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:27">
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="62">
+      <c r="C61" s="67"/>
+      <c r="D61" s="77">
         <v>4</v>
       </c>
-      <c r="E61" s="62"/>
+      <c r="E61" s="77"/>
     </row>
     <row r="62" spans="2:27">
       <c r="B62" s="36" t="s">
@@ -13217,7 +13217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="22" thickBot="1">
+    <row r="65" spans="1:27" ht="21.5" thickBot="1">
       <c r="B65" s="30" t="s">
         <v>4</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="23" thickTop="1" thickBot="1">
+    <row r="66" spans="1:27" ht="22" thickTop="1" thickBot="1">
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
@@ -13323,11 +13323,11 @@
       </c>
       <c r="X66" s="30"/>
     </row>
-    <row r="68" spans="1:24">
-      <c r="B68" s="72" t="s">
+    <row r="68" spans="1:27">
+      <c r="B68" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="72"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="32">
         <v>7</v>
       </c>
@@ -13335,29 +13335,32 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:24">
-      <c r="B69" s="72" t="s">
+    <row r="69" spans="1:27">
+      <c r="B69" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="72"/>
+      <c r="C69" s="67"/>
       <c r="D69" s="32"/>
     </row>
-    <row r="70" spans="1:24">
-      <c r="B70" s="72" t="s">
+    <row r="70" spans="1:27">
+      <c r="B70" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="C70" s="67"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+    </row>
+    <row r="71" spans="1:27">
       <c r="B71" s="36" t="s">
         <v>146</v>
       </c>
       <c r="C71" s="36"/>
       <c r="D71" s="32"/>
-    </row>
-    <row r="72" spans="1:24" ht="30">
+      <c r="AA71" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="30.5">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -13372,7 +13375,7 @@
       <c r="J72" s="33"/>
       <c r="K72" s="33"/>
     </row>
-    <row r="73" spans="1:24" ht="30">
+    <row r="73" spans="1:27" ht="30.5">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -13389,15 +13392,13 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
@@ -13414,13 +13415,15 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13437,30 +13440,30 @@
       <selection activeCell="J4" sqref="J4:P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="7" width="5.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="36" t="s">
@@ -13471,97 +13474,97 @@
       <c r="A4" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
+      <c r="J4" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="36"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79">
         <v>3</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="F6" s="79"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79">
         <v>10</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
+      <c r="F7" s="79"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79">
         <v>141</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
+      <c r="F8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="42">
@@ -13585,15 +13588,15 @@
       <c r="H11" s="42">
         <v>6</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-    </row>
-    <row r="12" spans="1:16" ht="23">
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+    </row>
+    <row r="12" spans="1:16" ht="25.5">
       <c r="B12" s="43">
         <v>3</v>
       </c>
@@ -13615,247 +13618,247 @@
       <c r="H12" s="43">
         <v>2</v>
       </c>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
     </row>
     <row r="17" spans="10:16">
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
     </row>
     <row r="18" spans="10:16">
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
     </row>
     <row r="19" spans="10:16">
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
     </row>
     <row r="20" spans="10:16">
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
     </row>
     <row r="21" spans="10:16">
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
     </row>
     <row r="22" spans="10:16">
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
     </row>
     <row r="23" spans="10:16">
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
     </row>
     <row r="24" spans="10:16">
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
     </row>
     <row r="25" spans="10:16">
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
     </row>
     <row r="26" spans="10:16">
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
     </row>
     <row r="27" spans="10:16">
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
     </row>
     <row r="28" spans="10:16">
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
     </row>
     <row r="29" spans="10:16">
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
     </row>
     <row r="30" spans="10:16">
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
     </row>
     <row r="31" spans="10:16">
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
     </row>
     <row r="32" spans="10:16">
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
     </row>
     <row r="33" spans="10:16">
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
     </row>
     <row r="34" spans="10:16">
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
     </row>
     <row r="35" spans="10:16">
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
     </row>
     <row r="36" spans="10:16">
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
     </row>
     <row r="37" spans="10:16">
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
     </row>
     <row r="38" spans="10:16">
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13883,30 +13886,30 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="7" width="5.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="36" t="s">
@@ -13917,64 +13920,64 @@
       <c r="A4" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
+      <c r="J4" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="36"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79">
         <v>3</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
+      <c r="F6" s="79"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="46"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="48">
         <v>314</v>
       </c>
@@ -13987,33 +13990,33 @@
       <c r="H8" s="48">
         <v>141</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
       <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
       <c r="P9" s="46"/>
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
       <c r="P10" s="46"/>
     </row>
     <row r="11" spans="1:16">
@@ -14038,15 +14041,15 @@
       <c r="H11" s="42">
         <v>6</v>
       </c>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
       <c r="P11" s="46"/>
     </row>
-    <row r="12" spans="1:16" ht="23">
+    <row r="12" spans="1:16" ht="25.5">
       <c r="B12" s="43">
         <v>3</v>
       </c>
@@ -14068,49 +14071,49 @@
       <c r="H12" s="43">
         <v>2</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
       <c r="P12" s="46"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
       <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
       <c r="P14" s="46"/>
     </row>
     <row r="15" spans="1:16">
       <c r="J15" s="35"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="45"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
     </row>
     <row r="16" spans="1:16">
       <c r="J16" s="35"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" s="34"/>
